--- a/00.기획서/221017_(1차 프로토)선물시스템기획서_V110.xlsx
+++ b/00.기획서/221017_(1차 프로토)선물시스템기획서_V110.xlsx
@@ -424,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,12 +483,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -499,12 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,9 +514,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,279 +1175,279 @@
   <sheetData>
     <row r="1" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="24" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
@@ -1557,15 +1551,15 @@
       <c r="C33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="21" t="s">
@@ -1596,18 +1590,18 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="38" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
@@ -1625,46 +1619,46 @@
       <c r="L38" s="2"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="44" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="3"/>
@@ -1789,16 +1783,16 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
@@ -1814,14 +1808,7 @@
       <c r="L57" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C48:L48"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C57:L57"/>
+  <mergeCells count="16">
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="C33:L33"/>
     <mergeCell ref="C46:L46"/>
@@ -1830,13 +1817,14 @@
     <mergeCell ref="C26:L26"/>
     <mergeCell ref="C27:L27"/>
     <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C56:L56"/>
     <mergeCell ref="C34:L34"/>
     <mergeCell ref="C35:L35"/>
     <mergeCell ref="C36:L36"/>
     <mergeCell ref="C47:L47"/>
-    <mergeCell ref="C52:L52"/>
-    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C42:L42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,603 +1848,603 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="30" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2475,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AC45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L3"/>
     </sheetView>
   </sheetViews>
@@ -2487,33 +2475,33 @@
   <sheetData>
     <row r="1" spans="2:29" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2865,15 +2853,15 @@
       <c r="C18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
       <c r="R18" s="6"/>
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
@@ -2894,15 +2882,15 @@
       <c r="C19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.3">
@@ -2979,15 +2967,15 @@
       <c r="C24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
     </row>
     <row r="26" spans="2:29" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="12"/>
@@ -3140,15 +3128,15 @@
       <c r="C34" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B35" s="13"/>
@@ -3215,15 +3203,15 @@
     <row r="39" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B39" s="13"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" spans="2:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="12"/>
@@ -3298,24 +3286,31 @@
       <c r="C45" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="C22:L22"/>
     <mergeCell ref="C23:L23"/>
@@ -3325,19 +3320,12 @@
     <mergeCell ref="C18:L18"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="C21:L21"/>
-    <mergeCell ref="C35:L35"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:L45"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="C10:L10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
